--- a/DOM_Banner/output/dept_banner/Amitoj Singh_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Amitoj Singh_2023.xlsx
@@ -558,87 +558,87 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>IOP Conference Series: Earth and Environmental Science</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S4210195883</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1755-1315</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1755-1315/1110/1/012023</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://iopscience.iop.org/article/10.1088/1755-1315/1110/1/012023/pdf</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1088/1755-1315/1110/1/012023</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>012023</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>012023</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
         <is>
           <t>https://iopscience.iop.org/article/10.1088/1755-1315/1110/1/012023/pdf</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>012023</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>012023</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1110</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://iopscience.iop.org/article/10.1088/1755-1315/1110/1/012023/pdf</t>
-        </is>
-      </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4214822514", "https://openalex.org/W3209948186", "https://openalex.org/W3212749919", "https://openalex.org/W2371020637", "https://openalex.org/W1979721602", "https://openalex.org/W2792324762", "https://openalex.org/W3012976479", "https://openalex.org/W4306362096", "https://openalex.org/W2276436827", "https://openalex.org/W2166444660")</t>
+          <t>c("https://openalex.org/W4214822514", "https://openalex.org/W3209948186", "https://openalex.org/W3212749919", "https://openalex.org/W2371020637", "https://openalex.org/W1979721602", "https://openalex.org/W2792324762", "https://openalex.org/W4306362096", "https://openalex.org/W3012976479", "https://openalex.org/W2276436827", "https://openalex.org/W2166444660")</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Amitoj Singh_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Amitoj Singh_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Research Scholar, Chandigarh University, Punjab; Assistant Professor, Chandigarh University, Punjab</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4320916360</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Impact of silica fume and PET fibre over the strength aspects of the concrete</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>IOP Conference Series: Earth and Environmental Science</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1088/1755-1315/1110/1/012023</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1088/1755-1315/1110/1/012023</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Mount Sinai Hospital, Manhattan, NY, USA; The Brooklyn Hospital Center, Brooklyn, NY, USA; Mount Sinai Hospital, Manhattan, NY, USA; The Brooklyn Hospital Center, Brooklyn, NY, USA; Mount Sinai Hospital, Manhattan, NY, USA; The Brooklyn Hospital Center, Brooklyn, NY, USA; Mount Sinai Hospital, Manhattan, NY, USA; The Brooklyn Hospital Center, Brooklyn, NY, USA; Mount Sinai Hospital, Manhattan, NY, USA; The Brooklyn Hospital Center, Brooklyn, NY, USA; Mount Sinai Hospital, Manhattan, NY, USA; The Brooklyn Hospital Center, Brooklyn, NY, USA; Mount Sinai Hospital, Manhattan, NY, USA; The Brooklyn Hospital Center, Brooklyn, NY, USA; Mount Sinai Hospital, Manhattan, NY, USA; The Brooklyn Hospital Center, Brooklyn, NY, USA; Mount Sinai Hospital, Manhattan, NY, USA; The Brooklyn Hospital Center, Brooklyn, NY, USA; Mount Sinai Hospital, Manhattan, NY, USA; The Brooklyn Hospital Center, Brooklyn, NY, USA; Mount Sinai Hospital, Manhattan, NY, USA; The Brooklyn Hospital Center, Brooklyn, NY, USA; Mount Sinai Hospital, Manhattan, NY, USA; The Brooklyn Hospital Center, Brooklyn, NY, USA; Mount Sinai Hospital, Manhattan, NY, USA; The Brooklyn Hospital Center, Brooklyn, NY, USA; Mount Sinai Hospital, Manhattan, NY, USA; The Brooklyn Hospital Center, Brooklyn, NY, USA; Mount Sinai Hospital, Manhattan, NY, USA; The Brooklyn Hospital Center, Brooklyn, NY, USA; Mount Sinai Hospital, Manhattan, NY, USA; The Brooklyn Hospital Center, Brooklyn, NY, USA; Mount Sinai Hospital, Manhattan, NY, USA; The Brooklyn Hospital Center, Brooklyn, NY, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323032653</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>TRENDS AND PREDICTORS OF IN-HOSPITAL MORTALITY IN AORTIC DISSECTION AND THE IMPACT OF ARRHYTHMIAS ON OUTCOMES</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(23)00617-4</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(23)00617-4</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Lahey Hospital and Medical Center, Burlington, MA, USA; Lahey Hospital and Medical Center, Burlington, MA, USA; Lahey Hospital and Medical Center, Burlington, MA, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4323033154</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>“ACUTE” THENAR HAMMER SYNDROME- AN UNUSUAL CAUSE OF RADIAL ARTERY OCCLUSION</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(23)03964-5</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0735-1097(23)03964-5</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>UCSF-Fresno; UCSF; UCSF- Fresno; UCSF Fresno Sleep Program; UCSF-Fresno; UCSF-Fresno</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4378611576</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>0633 Age matters: Association between age and depression severity at the time of OSA diagnosis, and PAP adherence in adult patients</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>SLEEP</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsad077.0633</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/sleep/zsad077.0633</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
